--- a/eastMaui/rawData/watersheds.xlsx
+++ b/eastMaui/rawData/watersheds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danwa\Documents\Programming\Trutta\HSHEP\EMaui\EMpackage\eastMaui\rawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80C96E2-B656-4D8B-B92A-F95E22CA86B9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547516E6-6E91-4A8F-B457-B7EEF442F4C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="82">
   <si>
     <t>WshedID</t>
   </si>
@@ -659,19 +659,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD309"/>
+  <dimension ref="A1:AD310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C274" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AD309"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="Y136" sqref="Y134:Y136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="2"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +763,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>8</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>9</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>11</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>11</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>11</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>11</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>11</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>11</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>11</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>11</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>12</v>
       </c>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>12</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>12</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>12</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>12</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>12</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>13</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>13</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>13</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>13</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>13</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>13</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>14</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>14</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>14</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>15</v>
       </c>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>15</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>15</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>15</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>15</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>15</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>15</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>15</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>15</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>15</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>15</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>16</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>16</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>16</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>16</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>17</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>17</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>17</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>17</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>17</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>17</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>17</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>17</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>17</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>18</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>18</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>18</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>18</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>18</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>19</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>19</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>19</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>19</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>19</v>
       </c>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>19</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>19</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>19</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>20</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>20</v>
       </c>
@@ -11176,7 +11176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>20</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>20</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>20</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>20</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>20</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>20</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>20</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>20</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>21</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>21</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>22</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>22</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>22</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>22</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>22</v>
       </c>
@@ -12511,9 +12511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -12585,7 +12585,7 @@
         <v>420</v>
       </c>
       <c r="Y134" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="Z134" t="s">
         <v>68</v>
@@ -12600,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>23</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="Y135" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="Z135" t="s">
         <v>68</v>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>23</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>23</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>23</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>23</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>23</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>23</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>23</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>23</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>23</v>
       </c>
@@ -13490,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>23</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>23</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>23</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>23</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>23</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>23</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>24</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>24</v>
       </c>
@@ -14202,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>24</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>24</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>24</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>24</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>24</v>
       </c>
@@ -14647,7 +14647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>25</v>
       </c>
@@ -14736,7 +14736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>25</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>25</v>
       </c>
@@ -14914,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>25</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>25</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>25</v>
       </c>
@@ -15181,7 +15181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>25</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>25</v>
       </c>
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>25</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>25</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>25</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>26</v>
       </c>
@@ -15715,7 +15715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>26</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>26</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>26</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>26</v>
       </c>
@@ -16071,7 +16071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>26</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>26</v>
       </c>
@@ -16246,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>26</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>27</v>
       </c>
@@ -16424,7 +16424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>27</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>27</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>28</v>
       </c>
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>28</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>28</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>28</v>
       </c>
@@ -16958,7 +16958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>28</v>
       </c>
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>28</v>
       </c>
@@ -17136,7 +17136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>28</v>
       </c>
@@ -17225,7 +17225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>28</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>28</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>28</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>29</v>
       </c>
@@ -17581,7 +17581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>29</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>29</v>
       </c>
@@ -17759,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>29</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>29</v>
       </c>
@@ -17937,7 +17937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>29</v>
       </c>
@@ -18026,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>29</v>
       </c>
@@ -18115,7 +18115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>29</v>
       </c>
@@ -18204,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>29</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>29</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>29</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>29</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>29</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>29</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>30</v>
       </c>
@@ -18827,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>31</v>
       </c>
@@ -18916,7 +18916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>31</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>31</v>
       </c>
@@ -19094,7 +19094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>31</v>
       </c>
@@ -19183,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>31</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>31</v>
       </c>
@@ -19361,7 +19361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>31</v>
       </c>
@@ -19450,7 +19450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>32</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>32</v>
       </c>
@@ -19625,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>32</v>
       </c>
@@ -19714,7 +19714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>32</v>
       </c>
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>33</v>
       </c>
@@ -19892,7 +19892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>34</v>
       </c>
@@ -19981,7 +19981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>34</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>34</v>
       </c>
@@ -20159,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>34</v>
       </c>
@@ -20248,7 +20248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>34</v>
       </c>
@@ -20337,7 +20337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>34</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>34</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>34</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>34</v>
       </c>
@@ -20693,7 +20693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>34</v>
       </c>
@@ -20782,7 +20782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>34</v>
       </c>
@@ -20871,7 +20871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>34</v>
       </c>
@@ -20960,7 +20960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>34</v>
       </c>
@@ -21049,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>34</v>
       </c>
@@ -21138,7 +21138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>35</v>
       </c>
@@ -21227,7 +21227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>35</v>
       </c>
@@ -21316,7 +21316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>35</v>
       </c>
@@ -21405,7 +21405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>35</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>35</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>35</v>
       </c>
@@ -21672,7 +21672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>35</v>
       </c>
@@ -21761,7 +21761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>35</v>
       </c>
@@ -21850,7 +21850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>35</v>
       </c>
@@ -21939,7 +21939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>36</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>36</v>
       </c>
@@ -22117,7 +22117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>36</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>36</v>
       </c>
@@ -22295,7 +22295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>36</v>
       </c>
@@ -22384,7 +22384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>36</v>
       </c>
@@ -22473,7 +22473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>36</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>36</v>
       </c>
@@ -22651,7 +22651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>36</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>36</v>
       </c>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>36</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>36</v>
       </c>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>36</v>
       </c>
@@ -23096,7 +23096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>36</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>36</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>36</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>36</v>
       </c>
@@ -23452,7 +23452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>36</v>
       </c>
@@ -23541,7 +23541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>36</v>
       </c>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>36</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>36</v>
       </c>
@@ -23808,7 +23808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>36</v>
       </c>
@@ -23897,7 +23897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>36</v>
       </c>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>36</v>
       </c>
@@ -24075,7 +24075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>36</v>
       </c>
@@ -24164,7 +24164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>36</v>
       </c>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>36</v>
       </c>
@@ -24342,7 +24342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>36</v>
       </c>
@@ -24431,7 +24431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>36</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>36</v>
       </c>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>36</v>
       </c>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>36</v>
       </c>
@@ -24787,7 +24787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>37</v>
       </c>
@@ -24873,7 +24873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>38</v>
       </c>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>38</v>
       </c>
@@ -25051,7 +25051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>39</v>
       </c>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>39</v>
       </c>
@@ -25229,7 +25229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>39</v>
       </c>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>39</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>40</v>
       </c>
@@ -25496,7 +25496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>40</v>
       </c>
@@ -25585,7 +25585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>40</v>
       </c>
@@ -25674,7 +25674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>41</v>
       </c>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>42</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>42</v>
       </c>
@@ -25938,7 +25938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>42</v>
       </c>
@@ -26027,7 +26027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>42</v>
       </c>
@@ -26116,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>42</v>
       </c>
@@ -26205,7 +26205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>43</v>
       </c>
@@ -26294,7 +26294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>43</v>
       </c>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>43</v>
       </c>
@@ -26472,7 +26472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>43</v>
       </c>
@@ -26561,7 +26561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>43</v>
       </c>
@@ -26650,7 +26650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>43</v>
       </c>
@@ -26739,7 +26739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>43</v>
       </c>
@@ -26828,7 +26828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>44</v>
       </c>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>44</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>45</v>
       </c>
@@ -27095,7 +27095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>45</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>45</v>
       </c>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>46</v>
       </c>
@@ -27362,7 +27362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>46</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>46</v>
       </c>
@@ -27540,7 +27540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>46</v>
       </c>
@@ -27629,7 +27629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>46</v>
       </c>
@@ -27718,7 +27718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>46</v>
       </c>
@@ -27807,7 +27807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>46</v>
       </c>
@@ -27896,7 +27896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>46</v>
       </c>
@@ -27985,7 +27985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>46</v>
       </c>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>46</v>
       </c>
@@ -28160,6 +28160,95 @@
         <v>76</v>
       </c>
       <c r="AD309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>18</v>
+      </c>
+      <c r="B310">
+        <v>350</v>
+      </c>
+      <c r="C310">
+        <v>6</v>
+      </c>
+      <c r="D310">
+        <v>31600</v>
+      </c>
+      <c r="E310">
+        <v>316</v>
+      </c>
+      <c r="F310">
+        <v>4198</v>
+      </c>
+      <c r="G310">
+        <v>1326600</v>
+      </c>
+      <c r="H310" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+      <c r="O310">
+        <v>0</v>
+      </c>
+      <c r="P310">
+        <v>0</v>
+      </c>
+      <c r="Q310">
+        <v>0</v>
+      </c>
+      <c r="R310">
+        <v>0</v>
+      </c>
+      <c r="S310">
+        <v>0</v>
+      </c>
+      <c r="T310">
+        <v>0</v>
+      </c>
+      <c r="U310">
+        <v>0</v>
+      </c>
+      <c r="V310">
+        <v>0</v>
+      </c>
+      <c r="W310">
+        <v>0</v>
+      </c>
+      <c r="X310">
+        <v>0</v>
+      </c>
+      <c r="Y310" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z310" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA310" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC310" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD310">
         <v>0</v>
       </c>
     </row>
